--- a/项目规划与个人工作日报_余莹莹.xlsx
+++ b/项目规划与个人工作日报_余莹莹.xlsx
@@ -16,9 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>《我爱看豆瓣》</t>
     </r>
     <r>
@@ -48,12 +55,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置react+react-router+redux+webpack+antd-mobile+fetch</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -97,6 +111,10 @@
   </si>
   <si>
     <t>详情和从详情跳到列表及路由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antd-mobile图标路由跳转之后需要刷新才能出现还未解决
+</t>
   </si>
   <si>
     <t>豆瓣地址</t>
@@ -171,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -214,75 +232,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,12 +278,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -312,25 +300,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,6 +315,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -360,7 +378,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -372,12 +389,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,6 +437,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,6 +497,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,121 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,21 +580,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,11 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +654,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -658,8 +675,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,19 +700,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,116 +721,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,23 +852,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1200,7 +1205,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:M16"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1294,9 +1299,9 @@
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="5">
         <v>1</v>
       </c>
@@ -1314,10 +1319,10 @@
     <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1331,12 +1336,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -1354,10 +1359,10 @@
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1371,12 +1376,12 @@
         <v>4</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="5">
         <v>1</v>
       </c>
@@ -1394,10 +1399,10 @@
     <row r="10" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1407,147 +1412,149 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5">
         <v>0.9</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1557,26 +1564,26 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="C19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1587,8 +1594,8 @@
     <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="11" t="s">
-        <v>25</v>
+      <c r="C21" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1598,11 +1605,11 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="11" t="s">
-        <v>27</v>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1612,11 +1619,11 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="11" t="s">
-        <v>29</v>
+      <c r="C23" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1626,29 +1633,29 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="11" t="s">
-        <v>33</v>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1661,11 +1668,11 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="11" t="s">
-        <v>35</v>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1678,7 +1685,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1690,11 +1697,11 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="11" t="s">
-        <v>38</v>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1704,11 +1711,11 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="11" t="s">
-        <v>40</v>
+      <c r="C31" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
